--- a/diaries/diary-Xiaolue_Peng.xlsx
+++ b/diaries/diary-Xiaolue_Peng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengxiaolve/Documents/02_UCI/Courses/quater_2/265_reverse_eng/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoluepeng/Documents/02_UCI/Courses/quater_2/265p_reverse_eng/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42A233-5DE2-1744-9DCD-A446CDC9E82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC706CD-7BC1-CF4B-AD37-BDBAADEB7D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34420" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -360,17 +360,137 @@
     <t>1. From the practice of project "Hello world", I learned we need to be skeptical and often ask important questions when reading code.
 2. Learned experience from our guest that we need to focus on techniques and constantly improve myself.</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review the content of last lecture and learn some new knowledge of reverse engineering.</t>
+  </si>
+  <si>
+    <t>1. Learned knowledge about how key expert read code and solve issues in project.
+2. Learned the significance of code review.</t>
+  </si>
+  <si>
+    <t>Learned the strategies of analyzing complex code. Sometimes the tools cannot help us generate an efficient diagrams. We need to analyze the logic and interaction by our own.</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>1:00 - 5:00 p.m.</t>
+  </si>
+  <si>
+    <t>Read the pull requests of spring-boot on github.</t>
+  </si>
+  <si>
+    <t>1. Went through the spring-boot's discussion and comments to find some interesting pull request.
+2. Learned the rules of how to create a pull request and how the pull request was classified.</t>
+  </si>
+  <si>
+    <t>There are many pull requests for spring-boot, which were classified by defects, improvement etc. It was a great way to manage the code. If someday we need to search a revision, it is very easy to search by category and see the logs there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to complete the homework </t>
+  </si>
+  <si>
+    <t>1. Completed to describe three interesting pull request.
+2. Searched some materials on the internet and completed to analyze the architecture of spring-boot</t>
+  </si>
+  <si>
+    <t>Learned that sprint-boot used a layered architecture, which contains data layer, service layer and web layer and understood the responsibility of each layer.</t>
+  </si>
+  <si>
+    <t>Review the notes of last lecture and learn new key expert practices and the concept of design pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Learned the importance of design pattern.
+2. Learned Strategy Pattern via a concrete example. </t>
+  </si>
+  <si>
+    <t>Learned that using design pattern in a proper way will make code more reusable and easy to management.</t>
+  </si>
+  <si>
+    <t>Design pattern is pretty useful and it's necessary to grasp some commonly used design pattern, which will make our code clean and elegant.</t>
+  </si>
+  <si>
+    <t>Try to find some open issues and write testcases</t>
+  </si>
+  <si>
+    <t>Rewrite homework 5</t>
+  </si>
+  <si>
+    <t>1.Revised the design pattern based on comments.
+2. Added some code examples for each design pattern and analyzed the benefits of using specified design pattern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the analyzation of design pattern, I got a deeper understanding for some handling in the code and how they work, such as the factory bean and the interaction between controllers and beans. </t>
+  </si>
+  <si>
+    <t>5:00 - 8:00 p.m.</t>
+  </si>
+  <si>
+    <t>1. Revised details of diaries
+2. Reviewed all the diaries and organized knowledge I learned about reverse engineering</t>
+  </si>
+  <si>
+    <t>I learned a lot of knowledge by this course such as different strategies to read code, design patterns and I also got some useful experience from our guests.</t>
+  </si>
+  <si>
+    <t>Thank you Andre and Kaj!</t>
+  </si>
+  <si>
+    <t>Review diaries and retrospect the knowledge I learned</t>
+  </si>
+  <si>
+    <t>1. Learned 3 new key expert practices and wrap up
+2. Leaned the stratigies of testing and practice with Jpacman 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review the content of last lecture and how other groups work.
+Learn 3 new key expert practices </t>
+  </si>
+  <si>
+    <t>Testing is a very useful way to review code and it is always used in the projects to find potantial bugs.
+Learned some experience from our guests and feel their passion about coding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review the content of last lecture and how other groups work.
+Learn more key expert practices </t>
+  </si>
+  <si>
+    <t>Learned more about key expert practices and some knowledge about code refactoring and git management.</t>
+  </si>
+  <si>
+    <t>Reading code needs to be a habit for software engineering. First we should have a correct way to read code. Second, we should keep on reading code.</t>
+  </si>
+  <si>
+    <t>Go through the open issues on the github and try to understand the essense of the issue.</t>
+  </si>
+  <si>
+    <t>Found an issue which is the redundant logic in the code. Tried to revised it and submit a PR.</t>
+  </si>
+  <si>
+    <t>spring-boot is a quite mature project, which is not easy to find some key issues. So we can only start with some edge issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Found an issue and investigated the code, also searched some materials on the internet, but no proper solutions for it.
+2. Created some testcases for the mongoDB part in the sprint-boot
+</t>
+  </si>
+  <si>
+    <t>It's pretty hard to revise an open issue in such a hugh project since we haven't got a deep understanding of the whole system. So the only thing we can do is to have a try.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -378,7 +498,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,7 +507,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -395,7 +515,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -404,7 +524,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -413,7 +533,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -421,7 +541,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -429,7 +549,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,7 +558,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,7 +567,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -456,7 +576,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -464,14 +584,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -480,13 +600,13 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -495,7 +615,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -544,7 +664,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -594,13 +714,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -876,18 +1005,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="34.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -898,7 +1027,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -907,7 +1036,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -916,7 +1045,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -929,7 +1058,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -942,7 +1071,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,7 +1084,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="16">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -964,7 +1093,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="16">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -973,7 +1102,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="85">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -1028,7 +1157,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="136">
+    <row r="12" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="102">
+    <row r="13" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="68">
+    <row r="14" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="255">
+    <row r="15" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1120,7 +1249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="102">
+    <row r="16" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -1143,7 +1272,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="68">
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>50</v>
       </c>
@@ -1166,7 +1295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="153">
+    <row r="18" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="119">
+    <row r="19" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -1212,7 +1341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="136">
+    <row r="20" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
@@ -1235,7 +1364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="102">
+    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>65</v>
       </c>
@@ -1258,7 +1387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51">
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>72</v>
       </c>
@@ -1281,7 +1410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="153">
+    <row r="23" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>76</v>
       </c>
@@ -1304,107 +1433,251 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="16">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+    <row r="24" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>43881</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>43886</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>43887</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>43888</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>43893</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="16">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="16">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+    <row r="29" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>43895</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>43901</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="16">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="16">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" ht="16">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" ht="16">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" ht="16">
-      <c r="A35" s="10"/>
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>43902</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>43904</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
+        <v>43905</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>43906</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1412,8 +1685,8 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="16">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1421,8 +1694,8 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="16">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1430,8 +1703,8 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="16">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1439,8 +1712,8 @@
       <c r="F38" s="10"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="16">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1448,8 +1721,8 @@
       <c r="F39" s="10"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="16">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1457,8 +1730,8 @@
       <c r="F40" s="10"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="16">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1466,8 +1739,8 @@
       <c r="F41" s="10"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="16">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1475,8 +1748,8 @@
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="16">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1484,7 +1757,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="16">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1493,7 +1766,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="16">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1502,7 +1775,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="16">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1511,7 +1784,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="16">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1520,7 +1793,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="16">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1529,7 +1802,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="16">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1538,7 +1811,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="16">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1547,7 +1820,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="16">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1556,7 +1829,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="16">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1565,7 +1838,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" ht="16">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1574,7 +1847,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="16">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1583,7 +1856,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" ht="16">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1592,7 +1865,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="16">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1601,7 +1874,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" ht="16">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1610,7 +1883,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" ht="16">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1619,7 +1892,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" ht="16">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1628,7 +1901,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" ht="16">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1637,7 +1910,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" ht="16">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1646,7 +1919,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" ht="16">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1655,7 +1928,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" ht="16">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1664,7 +1937,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" ht="16">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1673,7 +1946,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" ht="16">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1682,7 +1955,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" ht="16">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1691,7 +1964,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" ht="16">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1700,7 +1973,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" ht="16">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1709,7 +1982,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" ht="16">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1718,7 +1991,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" ht="16">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1727,7 +2000,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" ht="16">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1736,7 +2009,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" ht="16">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1745,7 +2018,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" ht="16">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1754,7 +2027,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" ht="16">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1763,7 +2036,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" ht="16">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -1772,7 +2045,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" ht="16">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -1781,7 +2054,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" ht="16">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -1790,7 +2063,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" ht="16">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -1799,7 +2072,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" ht="16">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -1808,7 +2081,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" ht="16">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -1817,7 +2090,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" ht="16">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -1826,7 +2099,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="16">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -1835,7 +2108,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" ht="16">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -1844,7 +2117,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="16">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -1853,7 +2126,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" ht="16">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -1862,7 +2135,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="16">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -1871,7 +2144,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" ht="16">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -1880,7 +2153,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="16">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -1889,7 +2162,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" ht="16">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -1898,7 +2171,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="16">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -1907,7 +2180,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" ht="16">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -1916,7 +2189,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="16">
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -1925,7 +2198,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" ht="16">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -1934,7 +2207,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="16">
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -1943,7 +2216,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" ht="16">
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -1952,7 +2225,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="16">
+    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -1961,7 +2234,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" ht="16">
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -1970,7 +2243,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="16">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -1979,7 +2252,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" ht="16">
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -1988,7 +2261,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="16">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -1997,7 +2270,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" ht="16">
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -2006,7 +2279,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="16">
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -2015,7 +2288,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" ht="16">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2024,7 +2297,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="16">
+    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -2033,7 +2306,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" ht="16">
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -2042,7 +2315,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="16">
+    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -2051,7 +2324,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" ht="16">
+    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -2060,7 +2333,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="16">
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -2069,7 +2342,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" ht="16">
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -2078,7 +2351,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="16">
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -2087,7 +2360,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" ht="16">
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -2096,7 +2369,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="16">
+    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -2105,7 +2378,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" ht="16">
+    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -2114,7 +2387,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="16">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -2123,7 +2396,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" ht="16">
+    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -2132,7 +2405,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="16">
+    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -2141,7 +2414,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" ht="16">
+    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -2150,7 +2423,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="16">
+    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -2159,7 +2432,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" ht="16">
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -2168,7 +2441,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="16">
+    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -2177,7 +2450,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" ht="16">
+    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -2186,7 +2459,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="16">
+    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -2195,7 +2468,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" ht="16">
+    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -2204,7 +2477,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="16">
+    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -2212,15 +2485,6 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="1:7" ht="16">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
